--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>3417.022786945491</v>
+        <v>3561.478192750021</v>
       </c>
       <c r="R2">
-        <v>30753.20508250942</v>
+        <v>32053.30373475018</v>
       </c>
       <c r="S2">
-        <v>0.003015865686432488</v>
+        <v>0.004175338467644691</v>
       </c>
       <c r="T2">
-        <v>0.003333077633427706</v>
+        <v>0.004454289223576161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>3656.70656050771</v>
+        <v>4320.504460316203</v>
       </c>
       <c r="R3">
-        <v>32910.35904456939</v>
+        <v>38884.54014284583</v>
       </c>
       <c r="S3">
-        <v>0.003227410681403715</v>
+        <v>0.005065191332495378</v>
       </c>
       <c r="T3">
-        <v>0.003566873155016813</v>
+        <v>0.005403592389580016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>1836.151825647175</v>
+        <v>2439.138874936827</v>
       </c>
       <c r="R4">
-        <v>16525.36643082457</v>
+        <v>21952.24987443144</v>
       </c>
       <c r="S4">
-        <v>0.00162058834000337</v>
+        <v>0.002859551518013788</v>
       </c>
       <c r="T4">
-        <v>0.00179104353796622</v>
+        <v>0.003050595684554111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>4184.313141402659</v>
+        <v>2660.064771448371</v>
       </c>
       <c r="R5">
-        <v>25105.87884841596</v>
+        <v>15960.38862869023</v>
       </c>
       <c r="S5">
-        <v>0.003693076461958671</v>
+        <v>0.003118556443575686</v>
       </c>
       <c r="T5">
-        <v>0.002721012103704047</v>
+        <v>0.002217936336958261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>2097.815534016203</v>
+        <v>2624.05434355357</v>
       </c>
       <c r="R6">
-        <v>18880.33980614582</v>
+        <v>23616.48909198213</v>
       </c>
       <c r="S6">
-        <v>0.001851532834277654</v>
+        <v>0.003076339218960474</v>
       </c>
       <c r="T6">
-        <v>0.002046279018741043</v>
+        <v>0.003281866784517269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>201562.2639978384</v>
+        <v>177806.3616900137</v>
       </c>
       <c r="R7">
-        <v>1814060.375980546</v>
+        <v>1600257.255210123</v>
       </c>
       <c r="S7">
-        <v>0.1778989352933527</v>
+        <v>0.208453260578021</v>
       </c>
       <c r="T7">
-        <v>0.196610533719851</v>
+        <v>0.2223798428336196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>215700.6549466246</v>
       </c>
       <c r="R8">
-        <v>1941305.894519622</v>
+        <v>1941305.894519621</v>
       </c>
       <c r="S8">
-        <v>0.1903774848326514</v>
+        <v>0.2528790556483438</v>
       </c>
       <c r="T8">
-        <v>0.2104015903156956</v>
+        <v>0.2697736868929658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>108310.3456128965</v>
+        <v>121773.7089874781</v>
       </c>
       <c r="R9">
-        <v>974793.1105160683</v>
+        <v>1095963.380887303</v>
       </c>
       <c r="S9">
-        <v>0.09559475461138879</v>
+        <v>0.1427627585978806</v>
       </c>
       <c r="T9">
-        <v>0.1056495121455942</v>
+        <v>0.1523006151664776</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>246822.9457758315</v>
+        <v>132803.4072576479</v>
       </c>
       <c r="R10">
-        <v>1480937.674654989</v>
+        <v>796820.4435458872</v>
       </c>
       <c r="S10">
-        <v>0.2178460312390628</v>
+        <v>0.1556935477201338</v>
       </c>
       <c r="T10">
-        <v>0.1605062050166708</v>
+        <v>0.1107301994260182</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>123745.2820336973</v>
+        <v>131005.591064386</v>
       </c>
       <c r="R11">
-        <v>1113707.538303276</v>
+        <v>1179050.319579474</v>
       </c>
       <c r="S11">
-        <v>0.1092176357058903</v>
+        <v>0.1535858579623356</v>
       </c>
       <c r="T11">
-        <v>0.1207052623015766</v>
+        <v>0.1638467964493523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>8306.938002525414</v>
+        <v>7070.163436230343</v>
       </c>
       <c r="R12">
-        <v>74762.44202272873</v>
+        <v>63631.47092607308</v>
       </c>
       <c r="S12">
-        <v>0.007331706822924993</v>
+        <v>0.008288784535567573</v>
       </c>
       <c r="T12">
-        <v>0.00810286351155368</v>
+        <v>0.008842551069674194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>8889.620170990702</v>
+        <v>8576.964678200344</v>
       </c>
       <c r="R13">
-        <v>80006.5815389163</v>
+        <v>77192.6821038031</v>
       </c>
       <c r="S13">
-        <v>0.007845982339226537</v>
+        <v>0.01005529968691662</v>
       </c>
       <c r="T13">
-        <v>0.00867123107132781</v>
+        <v>0.01072708557218526</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>4463.768704483694</v>
+        <v>4842.121601241767</v>
       </c>
       <c r="R14">
-        <v>40173.91834035324</v>
+        <v>43579.09441117589</v>
       </c>
       <c r="S14">
-        <v>0.003939724054359467</v>
+        <v>0.005676714974089726</v>
       </c>
       <c r="T14">
-        <v>0.004354108402949466</v>
+        <v>0.006055971397371521</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>10172.25579576995</v>
+        <v>5280.698537866567</v>
       </c>
       <c r="R15">
-        <v>61033.53477461968</v>
+        <v>31684.1912271994</v>
       </c>
       <c r="S15">
-        <v>0.008978037057663311</v>
+        <v>0.006190885510986181</v>
       </c>
       <c r="T15">
-        <v>0.006614904336004168</v>
+        <v>0.004402995482429342</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>5099.885095406398</v>
+        <v>5209.21147635848</v>
       </c>
       <c r="R16">
-        <v>45898.96585865758</v>
+        <v>46882.90328722631</v>
       </c>
       <c r="S16">
-        <v>0.004501160636898611</v>
+        <v>0.006107076861403203</v>
       </c>
       <c r="T16">
-        <v>0.004974597479856241</v>
+        <v>0.006515085390585031</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>2829.626920145584</v>
+        <v>3594.591518401815</v>
       </c>
       <c r="R17">
-        <v>16977.76152087351</v>
+        <v>21567.54911041089</v>
       </c>
       <c r="S17">
-        <v>0.00249742985808448</v>
+        <v>0.004214159242307029</v>
       </c>
       <c r="T17">
-        <v>0.001840074783719926</v>
+        <v>0.00299713572043751</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>3028.108376161861</v>
+        <v>4360.67493544805</v>
       </c>
       <c r="R18">
-        <v>18168.65025697116</v>
+        <v>26164.0496126883</v>
       </c>
       <c r="S18">
-        <v>0.002672609671013891</v>
+        <v>0.005112285634637391</v>
       </c>
       <c r="T18">
-        <v>0.001969145057843828</v>
+        <v>0.003635888680908786</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>1520.512141497928</v>
+        <v>2461.817098838394</v>
       </c>
       <c r="R19">
-        <v>9123.072848987569</v>
+        <v>14770.90259303036</v>
       </c>
       <c r="S19">
-        <v>0.001342004627790834</v>
+        <v>0.002886138585380037</v>
       </c>
       <c r="T19">
-        <v>0.0009887720639038772</v>
+        <v>0.002052639340614949</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>3465.017895832012</v>
+        <v>2684.797083781813</v>
       </c>
       <c r="R20">
-        <v>13860.07158332805</v>
+        <v>10739.18833512725</v>
       </c>
       <c r="S20">
-        <v>0.00305822618884425</v>
+        <v>0.003147551644301563</v>
       </c>
       <c r="T20">
-        <v>0.001502174959265353</v>
+        <v>0.001492371933544308</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>1737.195119456054</v>
+        <v>2648.45184405855</v>
       </c>
       <c r="R21">
-        <v>10423.17071673633</v>
+        <v>15890.7110643513</v>
       </c>
       <c r="S21">
-        <v>0.001533249111308627</v>
+        <v>0.003104941899325102</v>
       </c>
       <c r="T21">
-        <v>0.001129678584464395</v>
+        <v>0.002208253590164724</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>38724.69061725608</v>
+        <v>2637.133170957981</v>
       </c>
       <c r="R22">
-        <v>348522.2155553047</v>
+        <v>23734.19853862183</v>
       </c>
       <c r="S22">
-        <v>0.03417842751780274</v>
+        <v>0.003091672327354759</v>
       </c>
       <c r="T22">
-        <v>0.03777335072241734</v>
+        <v>0.003298224284637042</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>41440.99675739463</v>
+        <v>3199.16198020407</v>
       </c>
       <c r="R23">
-        <v>372968.9708165517</v>
+        <v>28792.45782183663</v>
       </c>
       <c r="S23">
-        <v>0.03657584040986386</v>
+        <v>0.003750573036601485</v>
       </c>
       <c r="T23">
-        <v>0.0404229260415598</v>
+        <v>0.004001145581041541</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>20808.87831539972</v>
+        <v>1806.085475621644</v>
       </c>
       <c r="R24">
-        <v>187279.9048385975</v>
+        <v>16254.76928059479</v>
       </c>
       <c r="S24">
-        <v>0.01836592437262088</v>
+        <v>0.002117384342705902</v>
       </c>
       <c r="T24">
-        <v>0.02029767174944041</v>
+        <v>0.002258844961425144</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>47420.29595634701</v>
+        <v>1969.672328743537</v>
       </c>
       <c r="R25">
-        <v>284521.7757380821</v>
+        <v>11818.03397246123</v>
       </c>
       <c r="S25">
-        <v>0.04185317228834202</v>
+        <v>0.002309167204673499</v>
       </c>
       <c r="T25">
-        <v>0.03083688885081737</v>
+        <v>0.001642293780479202</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>23774.28029956746</v>
+        <v>1943.00803690677</v>
       </c>
       <c r="R26">
-        <v>213968.5226961072</v>
+        <v>17487.07233216093</v>
       </c>
       <c r="S26">
-        <v>0.02098318935683387</v>
+        <v>0.002277907026344962</v>
       </c>
       <c r="T26">
-        <v>0.02319022343663209</v>
+        <v>0.002430092026881932</v>
       </c>
     </row>
   </sheetData>
